--- a/Assignment/DataExcel2.xlsx
+++ b/Assignment/DataExcel2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu20_04\Ubuntu_shared_folder\EE4204 Lab\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1129CC-5631-42BC-B200-5B28AF4FAEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C87397-CEB4-4E2C-8377-0FE3118BC646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24EBC844-52B1-4B8C-BA8D-22CC62D41138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
   <si>
     <t>Error Probability</t>
   </si>
@@ -73,18 +74,6 @@
   </si>
   <si>
     <t>33.24160146713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8888289944626356
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8127384228473771
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7446130965677804
-</t>
   </si>
   <si>
     <t xml:space="preserve">0.6432367668485
@@ -500,7 +489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -547,12 +536,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,6 +562,5383 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Transfer Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7159425417582135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9314092000325469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.41087969144185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1528811454772905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8956913153330399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0773416360219272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9287761052449497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.900309880574467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.423755725224769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.49134095509843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB0B-4DA2-95E0-0BC6E5086F3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="983072112"/>
+        <c:axId val="986782752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="983072112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986782752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986782752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983072112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Throughput</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87966803559999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83106712916767733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74052584322736026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63399384590165198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55469426756693496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46161924793221937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36586976762892265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2745958511171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18759080295089234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7666165594159041E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B68-40F3-AD61-42C7B66A851B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="986478560"/>
+        <c:axId val="986796064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986478560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986796064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986796064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986478560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Transfer Time (0 Error)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6422919432322134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8893493811289432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6691010793050065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5638504823048831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5423493385314901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-508B-484D-B29C-4783A9A37048}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1043390176"/>
+        <c:axId val="986791072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1043390176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986791072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986791072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043390176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Transfer Time (0.5 Error)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.7276013692220022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1289340655008928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4714688460032095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6379834016164097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6587593555450404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D812-4628-A122-C6863A4981E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1049623072"/>
+        <c:axId val="986683328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1049623072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986683328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986683328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049623072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Throughput (0 Error)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70404803281124761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3916763013543001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6713125083693199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.82203201587759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8543445183581602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A9D-4FAE-AF59-3A24DB8764A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1232326704"/>
+        <c:axId val="986678336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1232326704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986678336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986678336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232326704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Throughput (0.5 Error)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$27:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37621762600309233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53305096376383465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59838353621181029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58218354932430738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57790073341223025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8112-469C-B665-C85CEC6A082F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1234453520"/>
+        <c:axId val="986700800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1234453520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986700800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986700800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234453520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A8A1B-821B-4735-8233-9A4B42120A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7601C8-8FC3-47F9-BA48-6ACED2A6AAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A98A91-89E3-4EBD-AEA3-9D5AABF441E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF217359-D430-4639-AD73-E7D23E0AE3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7795AF0B-89B2-4763-BA22-1F0EFEEA8010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CB01A7-7630-43AF-8917-A9AB89CEF1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,15 +6240,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD619143-BD27-4227-9C1A-B09ADB329E1E}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="11" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -902,681 +6279,1831 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>134</v>
+      <c r="H5" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
+      <c r="C6" s="6">
+        <v>0.88882899446263497</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4">
         <f>(B6+D6+F6)/3</f>
         <v>3.7159425417582135</v>
       </c>
-      <c r="I6" s="3" t="e">
-        <f>(C6+E6+G6)/3</f>
-        <v>#VALUE!</v>
+      <c r="I6" s="3">
+        <v>0.87966803559999995</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+      <c r="C7" s="7">
+        <v>0.81273842284737696</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" ref="H7:H15" si="0">(B7+D7+F7)/3</f>
         <v>3.9314092000325469</v>
       </c>
-      <c r="I7" s="3" t="e">
-        <f>(C7+E7+G7)/3</f>
-        <v>#VALUE!</v>
+      <c r="I7" s="3">
+        <v>0.83106712916767733</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+      <c r="C8" s="7">
+        <v>0.74461309656777996</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>4.41087969144185</v>
       </c>
-      <c r="I8" s="3" t="e">
-        <f t="shared" ref="I8:I15" si="1">(C8+E8+G8)/3</f>
-        <v>#VALUE!</v>
+      <c r="I8" s="3">
+        <v>0.74052584322736026</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9">
+        <v>56</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>5.1528811454772905</v>
       </c>
-      <c r="I9" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I9" s="3">
+        <v>0.63399384590165198</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>5.8956913153330399</v>
       </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I10" s="3">
+        <v>0.55469426756693496</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>7.0773416360219272</v>
       </c>
-      <c r="I11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I11" s="3">
+        <v>0.46161924793221937</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>8.9287761052449497</v>
       </c>
-      <c r="I12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I12" s="3">
+        <v>0.36586976762892265</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>11.900309880574467</v>
       </c>
-      <c r="I13" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I13" s="3">
+        <v>0.2745958511171</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>17.423755725224769</v>
       </c>
-      <c r="I14" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I14" s="3">
+        <v>0.18759080295089234</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15">
+        <v>62</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>33.49134095509843</v>
       </c>
-      <c r="I15" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="I15" s="3">
+        <v>9.7666165594159041E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>134</v>
+      <c r="H18" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <f>(B19+D19+F19)/3</f>
         <v>4.6422919432322134</v>
       </c>
-      <c r="I19" t="e">
-        <f>(C19+E19+G19)/3</f>
-        <v>#VALUE!</v>
+      <c r="I19">
+        <v>0.70404803281124761</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H23" si="2">(B20+D20+F20)/3</f>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H23" si="1">(B20+D20+F20)/3</f>
         <v>2.8893493811289432</v>
+      </c>
+      <c r="I20">
+        <v>3.3916763013543001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
         <v>2.6691010793050065</v>
+      </c>
+      <c r="I21">
+        <v>3.6713125083693199</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
         <v>2.5638504823048831</v>
+      </c>
+      <c r="I22">
+        <v>3.82203201587759</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
         <v>2.5423493385314901</v>
+      </c>
+      <c r="I23">
+        <v>3.8543445183581602</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>134</v>
+      <c r="H26" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <f>(B27+D27+F27)/3</f>
         <v>8.7276013692220022</v>
+      </c>
+      <c r="I27">
+        <v>0.37621762600309233</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H31" si="3">(B28+D28+F28)/3</f>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28:H31" si="2">(B28+D28+F28)/3</f>
         <v>6.1289340655008928</v>
+      </c>
+      <c r="I28">
+        <v>0.53305096376383465</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
+      <c r="H29" s="4">
+        <f t="shared" si="2"/>
         <v>5.4714688460032095</v>
+      </c>
+      <c r="I29">
+        <v>0.59838353621181029</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="H30" s="4">
+        <f t="shared" si="2"/>
         <v>5.6379834016164097</v>
+      </c>
+      <c r="I30">
+        <v>0.58218354932430738</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6587593555450404</v>
+      </c>
+      <c r="I31">
+        <v>0.57790073341223025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D753CADA-A984-4408-9A25-335646FA9F7F}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B1))</f>
+        <v/>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C1))</f>
+        <v/>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D1))</f>
+        <v/>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E1))</f>
+        <v/>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F1))</f>
+        <v/>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G1))</f>
+        <v/>
+      </c>
+      <c r="H1" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B2))</f>
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C2))</f>
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D2))</f>
+        <v/>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E2))</f>
+        <v/>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F2))</f>
+        <v/>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G2))</f>
+        <v/>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B3))</f>
+        <v/>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C3))</f>
+        <v/>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D3))</f>
+        <v/>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E3))</f>
+        <v/>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F3))</f>
+        <v/>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G3))</f>
+        <v/>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B4))</f>
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C4))</f>
+        <v/>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D4))</f>
+        <v/>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E4))</f>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F4))</f>
+        <v/>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G4))</f>
+        <v/>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!B5))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!C5))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!D5))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!E5))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!F5))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!G5))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!H5))</f>
+        <v>Avg Transfer Time</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>5.6587593555450404</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B6))</f>
+        <v>3.6748576164245605</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>CLEAN(TRIM(Sheet1!C6))</f>
+        <v>0.888828994462635</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D6))</f>
+        <v>3.6154391765594482</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>CLEAN(TRIM(Sheet1!E6))</f>
+        <v>0.9034365786533077</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F6))</f>
+        <v>3.8575308322906494</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>CLEAN(TRIM(Sheet1!G6))</f>
+        <v>0.8467385335350435</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H6))</f>
+        <v>3.71594254175821</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.87966803559999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B7))</f>
+        <v>4.018906831741333</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C7))</f>
+        <v>0.812738422847377</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D7))</f>
+        <v>3.9191746711730957</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E7))</f>
+        <v>0.8334203688406462</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F7))</f>
+        <v>3.8561460971832275</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G7))</f>
+        <v>0.8470425958150097</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H7))</f>
+        <v>3.93140920003255</v>
+      </c>
+      <c r="I7" s="3">
+        <f>(C7+E7+G7)/3</f>
+        <v>0.83106712916767733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B8))</f>
+        <v>4.3866002559661865</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C8))</f>
+        <v>0.74461309656778</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D8))</f>
+        <v>4.420364141464233</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E8))</f>
+        <v>0.7389255489974274</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F8))</f>
+        <v>4.425674676895142</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G8))</f>
+        <v>0.7380388841168747</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H8))</f>
+        <v>4.41087969144185</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I15" si="0">(C8+E8+G8)/3</f>
+        <v>0.74052584322736026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B9))</f>
+        <v>5.077943563461304</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C9))</f>
+        <v>0.6432367668485</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D9))</f>
+        <v>5.2435290813446045</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E9))</f>
+        <v>0.6229239791233148</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F9))</f>
+        <v>5.137170791625977</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G9))</f>
+        <v>0.635820791733142</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H9))</f>
+        <v>5.15288114547729</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63399384590165198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B10))</f>
+        <v>6.179945230484009</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C10))</f>
+        <v>0.5285354284190289</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D10))</f>
+        <v>5.6897032260894775</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E10))</f>
+        <v>0.5740756363218853</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F10))</f>
+        <v>5.817425489425659</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G10))</f>
+        <v>0.561471737959892</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H10))</f>
+        <v>5.89569131533304</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55469426756693496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B11))</f>
+        <v>6.9958109855651855</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C11))</f>
+        <v>0.4668965480541949</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D11))</f>
+        <v>7.010043382644653</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E11))</f>
+        <v>0.46594861425347234</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F11))</f>
+        <v>7.226170539855957</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G11))</f>
+        <v>0.45201258148899287</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H11))</f>
+        <v>7.07734163602193</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46161924793221937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B12))</f>
+        <v>8.951777458190918</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C12))</f>
+        <v>0.36487949072184567</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D12))</f>
+        <v>9.043710470199585</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E12))</f>
+        <v>0.3611703416162012</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F12))</f>
+        <v>8.79084038734436</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G12))</f>
+        <v>0.37155947054872285</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H12))</f>
+        <v>8.92877610524495</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36586976762892265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.7</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B13))</f>
+        <v>11.770042896270752</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C13))</f>
+        <v>0.2775113080543579</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D13))</f>
+        <v>11.67703628540039</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E13))</f>
+        <v>0.2797216622580703</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F13))</f>
+        <v>12.25385046005249</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G13))</f>
+        <v>0.2665545830388735</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H13))</f>
+        <v>11.9003098805745</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2745958511171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B14))</f>
+        <v>16.8038227558136</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C14))</f>
+        <v>0.19437957942456607</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D14))</f>
+        <v>17.60652446746826</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E14))</f>
+        <v>0.18551759071105767</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F14))</f>
+        <v>17.860919952392578</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G14))</f>
+        <v>0.1828752387170548</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H14))</f>
+        <v>17.4237557252248</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18759080295089234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B15))</f>
+        <v>33.24160146713257</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C15))</f>
+        <v>0.09826000721504209</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D15))</f>
+        <v>32.076690912246704</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E15))</f>
+        <v>0.10182845883123615</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F15))</f>
+        <v>35.15573048591614</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G15))</f>
+        <v>0.0929100307361991</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H15))</f>
+        <v>33.4913409550984</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7666165594159041E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B16))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C16))</f>
+        <v/>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D16))</f>
+        <v/>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E16))</f>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F16))</f>
+        <v/>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G16))</f>
+        <v/>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B17))</f>
+        <v/>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C17))</f>
+        <v/>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D17))</f>
+        <v/>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E17))</f>
+        <v/>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F17))</f>
+        <v/>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G17))</f>
+        <v/>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!B18))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!C18))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!D18))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!E18))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!F18))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!G18))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!H18))</f>
+        <v>Avg Transfer Time</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B19))</f>
+        <v>4.4887542724609375</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C19))</f>
+        <v>0.7276673664315458</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D19))</f>
+        <v>4.6671741008758545</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E19))</f>
+        <v>0.6998496155065297</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F19))</f>
+        <v>4.770947456359863</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G19))</f>
+        <v>0.684627116495669</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H19))</f>
+        <v>4.64229194323221</v>
+      </c>
+      <c r="I19">
+        <f>(C19+E19+G19)/3</f>
+        <v>0.70404803281124761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B20))</f>
+        <v>2.860412359237671</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C20))</f>
+        <v>1.1419052883936314</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D20))</f>
+        <v>2.9230082035064697</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E20))</f>
+        <v>1.1174515336911097</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F20))</f>
+        <v>2.8846275806427</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G20))</f>
+        <v>1.1323194792695763</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H20))</f>
+        <v>2.88934938112894</v>
+      </c>
+      <c r="I20">
+        <f>(C20+E20+G20)</f>
+        <v>3.3916763013543001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B21))</f>
+        <v>2.6550400257110596</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C21))</f>
+        <v>1.2302338075393913</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D21))</f>
+        <v>2.6731953620910645</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E21))</f>
+        <v>1.2218785227298066</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F21))</f>
+        <v>2.679067850112915</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G21))</f>
+        <v>1.2192001781001305</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H21))</f>
+        <v>2.66910107930501</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I23" si="1">(C21+E21+G21)</f>
+        <v>3.6713125083693199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B22))</f>
+        <v>2.578444719314575</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C22))</f>
+        <v>1.2667791461778097</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D22))</f>
+        <v>2.555988073348999</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E22))</f>
+        <v>1.2779089362965157</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F22))</f>
+        <v>2.5571186542510986</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G22))</f>
+        <v>1.27734393340328</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H22))</f>
+        <v>2.56385048230488</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>3.82203201587759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B23))</f>
+        <v>2.5546047687530518</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C23))</f>
+        <v>1.278600917039057</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D23))</f>
+        <v>2.540266752243042</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E23))</f>
+        <v>1.2858177185981972</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F23))</f>
+        <v>2.5321764945983887</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G23))</f>
+        <v>1.2899258827209232</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H23))</f>
+        <v>2.54234933853149</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>3.8543445183581602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B24))</f>
+        <v/>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C24))</f>
+        <v/>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D24))</f>
+        <v/>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E24))</f>
+        <v/>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F24))</f>
+        <v/>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G24))</f>
+        <v/>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H24))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B25))</f>
+        <v/>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C25))</f>
+        <v/>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D25))</f>
+        <v/>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E25))</f>
+        <v/>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F25))</f>
+        <v/>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G25))</f>
+        <v/>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H25))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!B26))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!C26))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!D26))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!E26))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!F26))</f>
+        <v>Transfer Time/s</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!G26))</f>
+        <v>Throughput/Mbps</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>CLEAN(TRIM(Sheet1!H26))</f>
+        <v>Avg Transfer Time</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B27))</f>
+        <v>7.874929666519165</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C27))</f>
+        <v>0.4147744980995826</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D27))</f>
+        <v>8.98759412765503</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E27))</f>
+        <v>0.3634254010146564</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F27))</f>
+        <v>9.320280313491821</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G27))</f>
+        <v>0.35045297889503935</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H27))</f>
+        <v>8.727601369222</v>
+      </c>
+      <c r="I27">
+        <f>(C27+E27+G27)/3</f>
+        <v>0.37621762600309233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B28))</f>
+        <v>6.252340316772461</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C28))</f>
+        <v>0.5224155811285264</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D28))</f>
+        <v>6.035925626754761</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E28))</f>
+        <v>0.5411464954971869</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F28))</f>
+        <v>6.098536252975464</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G28))</f>
+        <v>0.5355908146657927</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H28))</f>
+        <v>6.12893406550089</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I31" si="2">(C28+E28+G28)/3</f>
+        <v>0.53305096376383465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B29))</f>
+        <v>5.609591722488403</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C29))</f>
+        <v>0.5822741050664321</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D29))</f>
+        <v>5.699478626251221</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E29))</f>
+        <v>0.5730910165985467</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F29))</f>
+        <v>5.1053361892700195</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G29))</f>
+        <v>0.6397854869704538</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H29))</f>
+        <v>5.47146884600321</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.59838353621181029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B30))</f>
+        <v>6.168713808059692</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C30))</f>
+        <v>0.529497736745772</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D30))</f>
+        <v>5.5369932651519775</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E30))</f>
+        <v>0.5899086098870931</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F30))</f>
+        <v>5.208243131637573</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G30))</f>
+        <v>0.6271443013400577</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H30))</f>
+        <v>5.63798340161641</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.58218354932430738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!B31))</f>
+        <v>5.426621437072754</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!C31))</f>
+        <v>0.6019067366088335</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!D31))</f>
+        <v>5.90428352355957</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!E31))</f>
+        <v>0.5532119158855711</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!F31))</f>
+        <v>5.645373106002808</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!G31))</f>
+        <v>0.5785835477422873</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f>CLEAN(TRIM(Sheet1!H31))</f>
+        <v>5.65875935554504</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.57790073341223025</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
